--- a/mbs-perturbation/chain/randomForest/nearmiss/chain-randomForest-nearmiss-results.xlsx
+++ b/mbs-perturbation/chain/randomForest/nearmiss/chain-randomForest-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.8428571428571427</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0.125</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9476190476190476</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.859846547314578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8666666666666666</v>
+        <v>0.68</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.6441850594227504</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.8114285714285714</v>
       </c>
     </row>
   </sheetData>
